--- a/TGSProject/Assets/Resources/MessageData/Excels/Stage2/Stage02_NumberLock.xlsx
+++ b/TGSProject/Assets/Resources/MessageData/Excels/Stage2/Stage02_NumberLock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\圖片\PAINT\盲目少女\シナリオ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TGSProject\TGSProject\Assets\Resources\MessageData\Excels\Stage2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FF0E02-7668-4EDA-9F05-F4218EFAB8BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E23624-7AF4-4DCE-87BE-9FBB66540013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9804" yWindow="480" windowWidth="21144" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Message" sheetId="1" r:id="rId1"/>
@@ -207,10 +207,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>このスイッチを押すと、カラクリに表示されている数字が変わる仕組みかもしれない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スイッチが……うん、複数ありますね……</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -228,6 +224,10 @@
   </si>
   <si>
     <t>さて、どの数字が正解だろうか……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチを押すと、カラクリに表示されている数字が変わる仕組みかもしれん。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -242,13 +242,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="新細明體"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -370,7 +370,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -531,23 +531,23 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -585,16 +585,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FAD6C82-C3C9-4FB0-9844-B648A96AB599}" name="テーブル2" displayName="テーブル2" ref="A1:G8" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G8" xr:uid="{A6B531AD-F337-4058-9114-33C46863F138}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1CD28D3-8D61-47E4-A994-B10C5206A468}" name="テーブル22" displayName="テーブル22" ref="A1:G8" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G8" xr:uid="{3D587965-1AA2-45AF-AAB6-D17547E3A935}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BB0E5D9F-2D08-4C72-8455-42174E525949}" name="id" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A47C076A-D9B0-4632-9894-3897E0489CD3}" name="name" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{8420612B-A8B6-4F66-91E6-3D22104328BA}" name="message" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{5D941501-A704-4925-A965-FE96EB114024}" name="balloonPos" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{9AF2B67E-A958-4289-81C4-7572D8AA49C5}" name="balloonSize" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{866C0031-09FA-4E9A-810B-C3ABA12D77D4}" name="balloonType" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F1963317-EF13-4424-9BAD-7431AB918421}" name="balloonColor" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2F7B56E5-90C0-4EA1-87F2-0CF72C88FB02}" name="id" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{5E6C4D84-C7CC-4881-A9DA-045832F5D5B6}" name="name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{235EC235-D4FD-4D8B-8313-7C01C22E8C31}" name="message" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{4CF52509-77BB-4F0E-A901-1EA6534FCBC3}" name="balloonPos" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{5CACF8A7-F2A4-4850-BDCF-2413C782C95F}" name="balloonSize" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{EFF7DE97-6DC8-4FB7-B703-871F22995162}" name="balloonType" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{AE3C977D-214A-44E2-92A8-05BB4C074020}" name="balloonColor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -866,17 +866,17 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="57.75" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" customWidth="1"/>
+    <col min="3" max="3" width="57.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" customWidth="1"/>
+    <col min="7" max="7" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -971,7 +971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7" ht="36">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -979,7 +979,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -1002,7 +1002,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>7</v>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1025,7 +1025,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>7</v>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1072,16 +1072,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9 E2:E8" xr:uid="{A26CC118-CF99-454A-9DC9-CE5C05F09D3D}">
       <formula1>"S,M,L"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8" xr:uid="{B814DFD8-34B2-4E91-A5A1-4475D0EBD98F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8" xr:uid="{577181DD-3306-437E-99F8-41F28212FA2F}">
       <formula1>"Left, Right"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G8" xr:uid="{C3F2162C-4D28-4657-9A5B-7BE73D5DF5F8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G8" xr:uid="{EF507827-0502-408C-8BFB-3FE77A246714}">
       <formula1>"RED, GREEN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F8" xr:uid="{2EB80252-8356-4FDA-B9DD-2525D2876A97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F8" xr:uid="{0F4B948B-960E-44A3-9DA7-2E8204DED8BA}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{AF10DB70-DBBD-4003-973B-CA0FA2181F63}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{37E686F8-D17B-4A5B-9BE4-75277A3C3E6C}">
       <formula1>"FALSE,TRUE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1101,7 +1101,7 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1156,18 +1156,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1335,18 +1335,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F76F5A-6FE6-43ED-8BDE-2E3768D5ABA7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0042F798-3373-44D4-9B9C-8A95AD5CBA2D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0042F798-3373-44D4-9B9C-8A95AD5CBA2D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F76F5A-6FE6-43ED-8BDE-2E3768D5ABA7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
